--- a/1_Result_Tables/4_ifo_QoQ_GVA_matched_to_ifoCAST_since_2021/ifo_qoq_matched_error_tables_first_since_2021_GVA.xlsx
+++ b/1_Result_Tables/4_ifo_QoQ_GVA_matched_to_ifoCAST_since_2021/ifo_qoq_matched_error_tables_first_since_2021_GVA.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.04722591320301464</v>
+        <v>0.04628788019112266</v>
       </c>
       <c r="C2">
-        <v>0.5076396011712485</v>
+        <v>0.4824692687926074</v>
       </c>
       <c r="D2">
-        <v>0.37059973938137</v>
+        <v>0.3511399927416267</v>
       </c>
       <c r="E2">
-        <v>0.6087690361552318</v>
+        <v>0.5925706647663439</v>
       </c>
       <c r="F2">
-        <v>0.6245304186564873</v>
+        <v>0.606948243852973</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.4727019645582407</v>
+        <v>0.4480479793330983</v>
       </c>
       <c r="C3">
-        <v>0.7838310712309001</v>
+        <v>0.7418921356350544</v>
       </c>
       <c r="D3">
-        <v>0.9410000244113258</v>
+        <v>0.8887687429572028</v>
       </c>
       <c r="E3">
-        <v>0.970051557604711</v>
+        <v>0.9427453224265835</v>
       </c>
       <c r="F3">
-        <v>0.8731551591405373</v>
+        <v>0.8535183764212539</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.6965296970635368</v>
+        <v>0.6602403078873996</v>
       </c>
       <c r="C4">
-        <v>0.936629014489136</v>
+        <v>0.8862161360526695</v>
       </c>
       <c r="D4">
-        <v>1.609321426529513</v>
+        <v>1.515028269969415</v>
       </c>
       <c r="E4">
-        <v>1.268590330457202</v>
+        <v>1.230864846345615</v>
       </c>
       <c r="F4">
-        <v>1.095039875140306</v>
+        <v>1.070773292379532</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.7154365462295696</v>
+        <v>0.6733686636360297</v>
       </c>
       <c r="C5">
-        <v>0.7653027408319708</v>
+        <v>0.7201182210757808</v>
       </c>
       <c r="D5">
-        <v>1.002881778781445</v>
+        <v>0.9403137650122958</v>
       </c>
       <c r="E5">
-        <v>1.001439852802676</v>
+        <v>0.9696977699326197</v>
       </c>
       <c r="F5">
-        <v>0.7253316929175155</v>
+        <v>0.7206577794175344</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.5227551019168813</v>
+        <v>0.5133116504495733</v>
       </c>
       <c r="C6">
-        <v>0.6832515024448965</v>
+        <v>0.6631082909423874</v>
       </c>
       <c r="D6">
-        <v>0.751532912636353</v>
+        <v>0.7111133683316896</v>
       </c>
       <c r="E6">
-        <v>0.8669099795459463</v>
+        <v>0.84327538107767</v>
       </c>
       <c r="F6">
-        <v>0.7176693166497707</v>
+        <v>0.692529925483697</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.4747595326214042</v>
+        <v>0.458951976745339</v>
       </c>
       <c r="C7">
-        <v>0.7062584340037694</v>
+        <v>0.673915242314678</v>
       </c>
       <c r="D7">
-        <v>0.7027093358294222</v>
+        <v>0.6571042978108756</v>
       </c>
       <c r="E7">
-        <v>0.8382776006964651</v>
+        <v>0.8106196998660196</v>
       </c>
       <c r="F7">
-        <v>0.7190888555543087</v>
+        <v>0.6934053832595887</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3600700214774442</v>
+        <v>0.3510070987759771</v>
       </c>
       <c r="C8">
-        <v>0.6667749253213736</v>
+        <v>0.6341193177088349</v>
       </c>
       <c r="D8">
-        <v>0.6138900040099726</v>
+        <v>0.5711820071072622</v>
       </c>
       <c r="E8">
-        <v>0.7835113298542482</v>
+        <v>0.7557658414530669</v>
       </c>
       <c r="F8">
-        <v>0.7268159078985587</v>
+        <v>0.696640049829043</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.6946713340124583</v>
+        <v>0.6367582691617952</v>
       </c>
       <c r="C9">
-        <v>0.6946713340124583</v>
+        <v>0.6367582691617952</v>
       </c>
       <c r="D9">
-        <v>0.692338052227453</v>
+        <v>0.6187545134813729</v>
       </c>
       <c r="E9">
-        <v>0.8320685381790691</v>
+        <v>0.7866095050794727</v>
       </c>
       <c r="F9">
-        <v>0.4896293524450681</v>
+        <v>0.4898521181462611</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.4837703694485789</v>
+        <v>0.4167169463657505</v>
       </c>
       <c r="C10">
-        <v>0.4837703694485789</v>
+        <v>0.4167169463657505</v>
       </c>
       <c r="D10">
-        <v>0.2867572510234954</v>
+        <v>0.2338164441105596</v>
       </c>
       <c r="E10">
-        <v>0.5354971998278752</v>
+        <v>0.4835457001262234</v>
       </c>
       <c r="F10">
-        <v>0.26513765146198</v>
+        <v>0.2742340030023716</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
